--- a/testData.xlsx
+++ b/testData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4DCFF5-8FF3-4F2E-AFB5-8932731AB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD56BD6-A168-4267-8567-453410E76720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,25 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>zip code</t>
-  </si>
-  <si>
-    <t>Andrei</t>
-  </si>
-  <si>
-    <t>Estrella</t>
-  </si>
-  <si>
-    <t>3033</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -41,20 +23,52 @@
     <t>password</t>
   </si>
   <si>
-    <t>standard_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
+    <t>johnpaulcorditamontano99@gmail.com</t>
+  </si>
+  <si>
+    <t>Japepe@241827</t>
+  </si>
+  <si>
+    <t>first-name</t>
+  </si>
+  <si>
+    <t>John Paul</t>
+  </si>
+  <si>
+    <t>last-name</t>
+  </si>
+  <si>
+    <t>Montano</t>
+  </si>
+  <si>
+    <t>first-company</t>
+  </si>
+  <si>
+    <t>second-company</t>
+  </si>
+  <si>
+    <t>first company</t>
+  </si>
+  <si>
+    <t>second company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,14 +91,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,18 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,34 +434,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D76F559D-1FD6-492D-B178-1BC3B2F9FC46}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>